--- a/Vorlage_Zeitplan.xlsx
+++ b/Vorlage_Zeitplan.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B32AB6B-A70B-408E-A0AA-08E7DF3BCA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -12,17 +13,28 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Arbeit</t>
   </si>
@@ -134,12 +146,15 @@
   </si>
   <si>
     <t>Aufgabenstellung studieren</t>
+  </si>
+  <si>
+    <t>e</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -943,18 +958,124 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,115 +1097,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1111,7 +1126,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1389,144 +1404,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AZ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE37" sqref="AE37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="44" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.265625" customWidth="1"/>
+    <col min="3" max="3" width="15.265625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" customWidth="1"/>
-    <col min="6" max="8" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.86328125" customWidth="1"/>
+    <col min="6" max="8" width="4.265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.28515625" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" customWidth="1"/>
-    <col min="16" max="18" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" customWidth="1"/>
-    <col min="20" max="20" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.265625" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" customWidth="1"/>
+    <col min="14" max="14" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1328125" customWidth="1"/>
+    <col min="16" max="18" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1328125" customWidth="1"/>
+    <col min="20" max="20" width="4.265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" customWidth="1"/>
-    <col min="22" max="22" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="24" width="33.28515625" customWidth="1"/>
-    <col min="25" max="43" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="30.5703125" customWidth="1"/>
-    <col min="45" max="51" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.265625" customWidth="1"/>
+    <col min="24" max="24" width="33.265625" customWidth="1"/>
+    <col min="25" max="43" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="30.59765625" customWidth="1"/>
+    <col min="45" max="51" width="4.265625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="14.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="104" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="102" t="s">
+      <c r="C1" s="105"/>
+      <c r="D1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="103"/>
-      <c r="F1" s="102" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="106"/>
-      <c r="H1" s="102" t="s">
+      <c r="G1" s="71"/>
+      <c r="H1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="102" t="s">
+      <c r="I1" s="71"/>
+      <c r="J1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="106"/>
-      <c r="L1" s="102" t="s">
+      <c r="K1" s="71"/>
+      <c r="L1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="102" t="s">
+      <c r="M1" s="71"/>
+      <c r="N1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="102" t="s">
+      <c r="O1" s="71"/>
+      <c r="P1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="102" t="s">
+      <c r="Q1" s="71"/>
+      <c r="R1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="106"/>
-      <c r="T1" s="102" t="s">
+      <c r="S1" s="71"/>
+      <c r="T1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="102" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="106"/>
-      <c r="X1" s="62" t="s">
+      <c r="W1" s="71"/>
+      <c r="X1" s="65" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="100" t="s">
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="102"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="101"/>
-      <c r="F2" s="100" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="100">
+      <c r="G2" s="63"/>
+      <c r="H2" s="62">
         <v>44752</v>
       </c>
-      <c r="I2" s="104"/>
-      <c r="J2" s="100" t="s">
+      <c r="I2" s="63"/>
+      <c r="J2" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="104"/>
-      <c r="L2" s="100">
+      <c r="K2" s="63"/>
+      <c r="L2" s="62">
         <v>44662</v>
       </c>
-      <c r="M2" s="105"/>
-      <c r="N2" s="100">
+      <c r="M2" s="64"/>
+      <c r="N2" s="62">
         <v>44876</v>
       </c>
-      <c r="O2" s="104"/>
-      <c r="P2" s="100" t="s">
+      <c r="O2" s="63"/>
+      <c r="P2" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="100" t="s">
+      <c r="Q2" s="63"/>
+      <c r="R2" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="104"/>
-      <c r="T2" s="100">
+      <c r="S2" s="63"/>
+      <c r="T2" s="62">
         <v>44604</v>
       </c>
-      <c r="U2" s="104"/>
-      <c r="V2" s="100">
+      <c r="U2" s="63"/>
+      <c r="V2" s="62">
         <v>44816</v>
       </c>
-      <c r="W2" s="104"/>
-      <c r="X2" s="98"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="66"/>
+    </row>
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="103"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1593,16 +1608,16 @@
       <c r="W3" s="4">
         <v>2</v>
       </c>
-      <c r="X3" s="99"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="X3" s="67"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="61">
+      <c r="B4" s="83">
         <v>30</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="85">
         <v>33</v>
       </c>
       <c r="D4" s="5"/>
@@ -1625,14 +1640,14 @@
       <c r="U4" s="7"/>
       <c r="V4" s="10"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="83" t="s">
+      <c r="X4" s="98" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="64"/>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="85"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
@@ -1653,16 +1668,16 @@
       <c r="U5" s="37"/>
       <c r="V5" s="41"/>
       <c r="W5" s="39"/>
-      <c r="X5" s="77"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="X5" s="87"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A6" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="83">
         <v>2</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="85">
         <v>1.5</v>
       </c>
       <c r="D6" s="15"/>
@@ -1685,14 +1700,14 @@
       <c r="U6" s="12"/>
       <c r="V6" s="14"/>
       <c r="W6" s="13"/>
-      <c r="X6" s="77"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="64"/>
+      <c r="X6" s="87"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="36"/>
-      <c r="E7" s="107"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="14"/>
@@ -1711,20 +1726,20 @@
       <c r="U7" s="12"/>
       <c r="V7" s="14"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="77"/>
+      <c r="X7" s="87"/>
       <c r="AA7" s="60"/>
       <c r="AB7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A8" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="83">
         <v>2</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="85">
         <v>2.5</v>
       </c>
       <c r="D8" s="15"/>
@@ -1747,16 +1762,16 @@
       <c r="U8" s="12"/>
       <c r="V8" s="14"/>
       <c r="W8" s="13"/>
-      <c r="X8" s="77"/>
+      <c r="X8" s="87"/>
       <c r="AA8" s="59"/>
       <c r="AB8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="64"/>
+    <row r="9" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
       <c r="F9" s="11"/>
@@ -1777,20 +1792,20 @@
       <c r="U9" s="12"/>
       <c r="V9" s="14"/>
       <c r="W9" s="13"/>
-      <c r="X9" s="77"/>
+      <c r="X9" s="87"/>
       <c r="AA9" s="58"/>
       <c r="AB9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87" t="s">
+    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="88">
+      <c r="B10" s="91">
         <v>1.5</v>
       </c>
-      <c r="C10" s="89">
+      <c r="C10" s="93">
         <v>1</v>
       </c>
       <c r="D10" s="5"/>
@@ -1813,14 +1828,14 @@
       <c r="U10" s="6"/>
       <c r="V10" s="18"/>
       <c r="W10" s="17"/>
-      <c r="X10" s="76" t="s">
+      <c r="X10" s="86" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="82"/>
+    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
@@ -1841,16 +1856,16 @@
       <c r="U11" s="12"/>
       <c r="V11" s="14"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="77"/>
-    </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
+      <c r="X11" s="87"/>
+    </row>
+    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="96">
         <v>1</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="97">
         <v>1</v>
       </c>
       <c r="D12" s="11"/>
@@ -1873,12 +1888,12 @@
       <c r="U12" s="12"/>
       <c r="V12" s="14"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="77"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X12" s="87"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="73"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="97"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="99"/>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
       <c r="F13" s="44"/>
@@ -1899,16 +1914,16 @@
       <c r="U13" s="21"/>
       <c r="V13" s="23"/>
       <c r="W13" s="22"/>
-      <c r="X13" s="78"/>
-    </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="X13" s="88"/>
+    </row>
+    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="91">
         <v>1</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="93">
         <v>1</v>
       </c>
       <c r="D14" s="5"/>
@@ -1931,14 +1946,14 @@
       <c r="U14" s="6"/>
       <c r="V14" s="18"/>
       <c r="W14" s="17"/>
-      <c r="X14" s="76" t="s">
+      <c r="X14" s="86" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="82"/>
+    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="90"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
@@ -1959,16 +1974,16 @@
       <c r="U15" s="12"/>
       <c r="V15" s="14"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="77"/>
-    </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="X15" s="87"/>
+    </row>
+    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="96">
         <v>2</v>
       </c>
-      <c r="C16" s="81">
+      <c r="C16" s="97">
         <v>2</v>
       </c>
       <c r="D16" s="11"/>
@@ -1991,12 +2006,12 @@
       <c r="U16" s="12"/>
       <c r="V16" s="14"/>
       <c r="W16" s="13"/>
-      <c r="X16" s="77"/>
-    </row>
-    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="82"/>
+      <c r="X16" s="87"/>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="90"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="36"/>
@@ -2017,16 +2032,16 @@
       <c r="U17" s="12"/>
       <c r="V17" s="14"/>
       <c r="W17" s="13"/>
-      <c r="X17" s="77"/>
-    </row>
-    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="X17" s="87"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="96">
         <v>1.5</v>
       </c>
-      <c r="C18" s="81">
+      <c r="C18" s="97">
         <v>1</v>
       </c>
       <c r="D18" s="11"/>
@@ -2049,12 +2064,12 @@
       <c r="U18" s="12"/>
       <c r="V18" s="14"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="77"/>
-    </row>
-    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="82"/>
+      <c r="X18" s="87"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
@@ -2075,13 +2090,13 @@
       <c r="U19" s="12"/>
       <c r="V19" s="14"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="77"/>
-    </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="X19" s="87"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="96">
         <v>2</v>
       </c>
       <c r="C20" s="50">
@@ -2107,11 +2122,11 @@
       <c r="U20" s="12"/>
       <c r="V20" s="14"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="77"/>
-    </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X20" s="87"/>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="73"/>
-      <c r="B21" s="75"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="51"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
@@ -2133,10 +2148,10 @@
       <c r="U21" s="21"/>
       <c r="V21" s="23"/>
       <c r="W21" s="22"/>
-      <c r="X21" s="78"/>
-    </row>
-    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
+      <c r="X21" s="88"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="72" t="s">
         <v>16</v>
       </c>
       <c r="B22" s="53">
@@ -2165,11 +2180,11 @@
       <c r="U22" s="6"/>
       <c r="V22" s="18"/>
       <c r="W22" s="17"/>
-      <c r="X22" s="76" t="s">
+      <c r="X22" s="86" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="73"/>
       <c r="B23" s="52"/>
       <c r="C23" s="51"/>
@@ -2193,16 +2208,16 @@
       <c r="U23" s="21"/>
       <c r="V23" s="23"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="78"/>
-    </row>
-    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="87" t="s">
+      <c r="X23" s="88"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="88">
+      <c r="B24" s="91">
         <v>1.5</v>
       </c>
-      <c r="C24" s="89">
+      <c r="C24" s="93">
         <v>1</v>
       </c>
       <c r="D24" s="5"/>
@@ -2225,14 +2240,14 @@
       <c r="U24" s="6"/>
       <c r="V24" s="18"/>
       <c r="W24" s="17"/>
-      <c r="X24" s="76" t="s">
+      <c r="X24" s="86" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="82"/>
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="90"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="94"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
@@ -2253,16 +2268,16 @@
       <c r="U25" s="12"/>
       <c r="V25" s="14"/>
       <c r="W25" s="13"/>
-      <c r="X25" s="77"/>
-    </row>
-    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="72" t="s">
+      <c r="X25" s="87"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="96">
         <v>2.5</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="97">
         <v>3</v>
       </c>
       <c r="D26" s="11"/>
@@ -2285,12 +2300,12 @@
       <c r="U26" s="12"/>
       <c r="V26" s="14"/>
       <c r="W26" s="13"/>
-      <c r="X26" s="77"/>
-    </row>
-    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="82"/>
+      <c r="X26" s="87"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="90"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="94"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
       <c r="F27" s="11"/>
@@ -2311,14 +2326,14 @@
       <c r="U27" s="12"/>
       <c r="V27" s="14"/>
       <c r="W27" s="13"/>
-      <c r="X27" s="77"/>
-    </row>
-    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="74">
+      <c r="X27" s="87"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="95"/>
+      <c r="B28" s="96">
         <v>4.5</v>
       </c>
-      <c r="C28" s="81">
+      <c r="C28" s="97">
         <v>5</v>
       </c>
       <c r="D28" s="11"/>
@@ -2341,12 +2356,12 @@
       <c r="U28" s="12"/>
       <c r="V28" s="14"/>
       <c r="W28" s="13"/>
-      <c r="X28" s="77"/>
-    </row>
-    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="82"/>
+      <c r="X28" s="87"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="94"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="11"/>
@@ -2367,14 +2382,14 @@
       <c r="U29" s="12"/>
       <c r="V29" s="14"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="77"/>
-    </row>
-    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="74">
+      <c r="X29" s="87"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="95"/>
+      <c r="B30" s="96">
         <v>2.5</v>
       </c>
-      <c r="C30" s="81">
+      <c r="C30" s="97">
         <v>5</v>
       </c>
       <c r="D30" s="11"/>
@@ -2397,12 +2412,12 @@
       <c r="U30" s="12"/>
       <c r="V30" s="14"/>
       <c r="W30" s="13"/>
-      <c r="X30" s="77"/>
-    </row>
-    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="82"/>
+      <c r="X30" s="87"/>
+    </row>
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="90"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="94"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
@@ -2423,9 +2438,9 @@
       <c r="U31" s="12"/>
       <c r="V31" s="14"/>
       <c r="W31" s="13"/>
-      <c r="X31" s="77"/>
-    </row>
-    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="87"/>
+    </row>
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="47" t="s">
         <v>21</v>
       </c>
@@ -2455,9 +2470,9 @@
       <c r="U32" s="12"/>
       <c r="V32" s="14"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="77"/>
-    </row>
-    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="87"/>
+    </row>
+    <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="46"/>
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
@@ -2481,14 +2496,14 @@
       <c r="U33" s="12"/>
       <c r="V33" s="14"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="77"/>
-    </row>
-    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="87"/>
+    </row>
+    <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="49"/>
       <c r="B34" s="48">
         <v>4.5</v>
       </c>
-      <c r="C34" s="81">
+      <c r="C34" s="97">
         <v>1</v>
       </c>
       <c r="D34" s="11"/>
@@ -2511,12 +2526,12 @@
       <c r="U34" s="12"/>
       <c r="V34" s="14"/>
       <c r="W34" s="13"/>
-      <c r="X34" s="77"/>
-    </row>
-    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="87"/>
+    </row>
+    <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="57"/>
       <c r="B35" s="55"/>
-      <c r="C35" s="82"/>
+      <c r="C35" s="94"/>
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
       <c r="F35" s="11"/>
@@ -2537,9 +2552,9 @@
       <c r="U35" s="12"/>
       <c r="V35" s="14"/>
       <c r="W35" s="13"/>
-      <c r="X35" s="77"/>
-    </row>
-    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="87"/>
+    </row>
+    <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="49"/>
       <c r="B36" s="48">
         <v>2.5</v>
@@ -2567,9 +2582,9 @@
       <c r="U36" s="12"/>
       <c r="V36" s="14"/>
       <c r="W36" s="13"/>
-      <c r="X36" s="77"/>
-    </row>
-    <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="87"/>
+    </row>
+    <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="57"/>
       <c r="B37" s="55"/>
       <c r="C37" s="56"/>
@@ -2593,9 +2608,9 @@
       <c r="U37" s="12"/>
       <c r="V37" s="14"/>
       <c r="W37" s="13"/>
-      <c r="X37" s="77"/>
-    </row>
-    <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="87"/>
+    </row>
+    <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="49"/>
       <c r="B38" s="48">
         <v>1.5</v>
@@ -2623,9 +2638,9 @@
       <c r="U38" s="12"/>
       <c r="V38" s="14"/>
       <c r="W38" s="13"/>
-      <c r="X38" s="77"/>
-    </row>
-    <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="87"/>
+    </row>
+    <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="57"/>
       <c r="B39" s="55"/>
       <c r="C39" s="56"/>
@@ -2649,14 +2664,17 @@
       <c r="U39" s="12"/>
       <c r="V39" s="14"/>
       <c r="W39" s="13"/>
-      <c r="X39" s="77"/>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="61">
+      <c r="X39" s="87"/>
+      <c r="AE39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A40" s="82"/>
+      <c r="B40" s="83">
         <v>4.5</v>
       </c>
-      <c r="C40" s="64">
+      <c r="C40" s="85">
         <v>3.5</v>
       </c>
       <c r="D40" s="11"/>
@@ -2679,12 +2697,12 @@
       <c r="U40" s="12"/>
       <c r="V40" s="14"/>
       <c r="W40" s="13"/>
-      <c r="X40" s="77"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="61"/>
-      <c r="C41" s="64"/>
+      <c r="X40" s="87"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A41" s="82"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="11"/>
       <c r="E41" s="12"/>
       <c r="F41" s="11"/>
@@ -2705,14 +2723,14 @@
       <c r="U41" s="12"/>
       <c r="V41" s="14"/>
       <c r="W41" s="13"/>
-      <c r="X41" s="77"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="61">
+      <c r="X41" s="87"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A42" s="82"/>
+      <c r="B42" s="83">
         <v>4.5</v>
       </c>
-      <c r="C42" s="64">
+      <c r="C42" s="85">
         <v>5</v>
       </c>
       <c r="D42" s="11"/>
@@ -2735,12 +2753,12 @@
       <c r="U42" s="12"/>
       <c r="V42" s="14"/>
       <c r="W42" s="13"/>
-      <c r="X42" s="77"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="61"/>
-      <c r="C43" s="64"/>
+      <c r="X42" s="87"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A43" s="82"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="85"/>
       <c r="D43" s="11"/>
       <c r="E43" s="12"/>
       <c r="F43" s="11"/>
@@ -2761,14 +2779,14 @@
       <c r="U43" s="12"/>
       <c r="V43" s="14"/>
       <c r="W43" s="13"/>
-      <c r="X43" s="77"/>
-    </row>
-    <row r="44" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="61">
+      <c r="X43" s="87"/>
+    </row>
+    <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="95"/>
+      <c r="B44" s="83">
         <v>1.5</v>
       </c>
-      <c r="C44" s="64">
+      <c r="C44" s="85">
         <v>2</v>
       </c>
       <c r="D44" s="11"/>
@@ -2791,12 +2809,12 @@
       <c r="U44" s="12"/>
       <c r="V44" s="14"/>
       <c r="W44" s="13"/>
-      <c r="X44" s="77"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X44" s="87"/>
+    </row>
+    <row r="45" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="73"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="86"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="89"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
       <c r="F45" s="20"/>
@@ -2817,16 +2835,16 @@
       <c r="U45" s="21"/>
       <c r="V45" s="23"/>
       <c r="W45" s="22"/>
-      <c r="X45" s="78"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="90" t="s">
+      <c r="X45" s="88"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A46" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="91">
+      <c r="B46" s="76">
         <v>1.5</v>
       </c>
-      <c r="C46" s="96">
+      <c r="C46" s="84">
         <v>1</v>
       </c>
       <c r="D46" s="5"/>
@@ -2849,14 +2867,14 @@
       <c r="U46" s="6"/>
       <c r="V46" s="18"/>
       <c r="W46" s="17"/>
-      <c r="X46" s="76" t="s">
+      <c r="X46" s="86" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="61"/>
-      <c r="C47" s="64"/>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A47" s="82"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="85"/>
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
       <c r="F47" s="11"/>
@@ -2877,16 +2895,16 @@
       <c r="U47" s="12"/>
       <c r="V47" s="14"/>
       <c r="W47" s="13"/>
-      <c r="X47" s="77"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="63" t="s">
+      <c r="X47" s="87"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A48" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="61">
+      <c r="B48" s="83">
         <v>4.5</v>
       </c>
-      <c r="C48" s="64">
+      <c r="C48" s="85">
         <v>4.5</v>
       </c>
       <c r="D48" s="11"/>
@@ -2909,12 +2927,12 @@
       <c r="U48" s="16"/>
       <c r="V48" s="14"/>
       <c r="W48" s="13"/>
-      <c r="X48" s="77"/>
-    </row>
-    <row r="49" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="84"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="86"/>
+      <c r="X48" s="87"/>
+    </row>
+    <row r="49" spans="1:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A49" s="75"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="20"/>
       <c r="E49" s="21"/>
       <c r="F49" s="20"/>
@@ -2935,16 +2953,16 @@
       <c r="U49" s="40"/>
       <c r="V49" s="23"/>
       <c r="W49" s="22"/>
-      <c r="X49" s="78"/>
-    </row>
-    <row r="50" spans="1:52" x14ac:dyDescent="0.25">
-      <c r="A50" s="90" t="s">
+      <c r="X49" s="88"/>
+    </row>
+    <row r="50" spans="1:52" x14ac:dyDescent="0.45">
+      <c r="A50" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="91">
+      <c r="B50" s="76">
         <v>2.5</v>
       </c>
-      <c r="C50" s="92">
+      <c r="C50" s="78">
         <v>2</v>
       </c>
       <c r="D50" s="25"/>
@@ -2967,14 +2985,14 @@
       <c r="U50" s="26"/>
       <c r="V50" s="29"/>
       <c r="W50" s="30"/>
-      <c r="X50" s="94" t="s">
+      <c r="X50" s="80" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="84"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="93"/>
+    <row r="51" spans="1:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A51" s="75"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="20"/>
       <c r="E51" s="21"/>
       <c r="F51" s="20"/>
@@ -2995,9 +3013,9 @@
       <c r="U51" s="21"/>
       <c r="V51" s="45"/>
       <c r="W51" s="38"/>
-      <c r="X51" s="95"/>
-    </row>
-    <row r="52" spans="1:52" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X51" s="81"/>
+    </row>
+    <row r="52" spans="1:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="31" t="s">
         <v>27</v>
       </c>
@@ -3059,23 +3077,65 @@
       <c r="AY52" s="34"/>
       <c r="AZ52" s="35"/>
     </row>
-    <row r="53" spans="1:52" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:52" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="X14:X21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="X10:X13"/>
+    <mergeCell ref="X4:X9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="X24:X45"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="B50:B51"/>
@@ -3092,64 +3152,22 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="X24:X45"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="X10:X13"/>
-    <mergeCell ref="X4:X9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="X14:X21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="59" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Vorlage_Zeitplan.xlsx
+++ b/Vorlage_Zeitplan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B32AB6B-A70B-408E-A0AA-08E7DF3BCA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D25CC1C-2901-4D59-B4A6-CDDD9DC5256E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,7 +862,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -919,12 +919,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1410,8 +1404,8 @@
   </sheetPr>
   <dimension ref="A1:AZ53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE39" sqref="AE39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1443,105 +1437,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="104" t="s">
+      <c r="B1" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="105"/>
-      <c r="D1" s="69" t="s">
+      <c r="C1" s="103"/>
+      <c r="D1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="69" t="s">
+      <c r="E1" s="68"/>
+      <c r="F1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="71"/>
-      <c r="H1" s="69" t="s">
+      <c r="G1" s="69"/>
+      <c r="H1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="69" t="s">
+      <c r="I1" s="69"/>
+      <c r="J1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="71"/>
-      <c r="L1" s="69" t="s">
+      <c r="K1" s="69"/>
+      <c r="L1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="69" t="s">
+      <c r="M1" s="69"/>
+      <c r="N1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="69" t="s">
+      <c r="O1" s="69"/>
+      <c r="P1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="69" t="s">
+      <c r="Q1" s="69"/>
+      <c r="R1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="71"/>
-      <c r="T1" s="69" t="s">
+      <c r="S1" s="69"/>
+      <c r="T1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="69" t="s">
+      <c r="U1" s="69"/>
+      <c r="V1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="71"/>
-      <c r="X1" s="65" t="s">
+      <c r="W1" s="69"/>
+      <c r="X1" s="63" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="102"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="62" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="62" t="s">
+      <c r="E2" s="66"/>
+      <c r="F2" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="62">
+      <c r="G2" s="61"/>
+      <c r="H2" s="60">
         <v>44752</v>
       </c>
-      <c r="I2" s="63"/>
-      <c r="J2" s="62" t="s">
+      <c r="I2" s="61"/>
+      <c r="J2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="63"/>
-      <c r="L2" s="62">
+      <c r="K2" s="61"/>
+      <c r="L2" s="60">
         <v>44662</v>
       </c>
-      <c r="M2" s="64"/>
-      <c r="N2" s="62">
+      <c r="M2" s="62"/>
+      <c r="N2" s="60">
         <v>44876</v>
       </c>
-      <c r="O2" s="63"/>
-      <c r="P2" s="62" t="s">
+      <c r="O2" s="61"/>
+      <c r="P2" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="62" t="s">
+      <c r="Q2" s="61"/>
+      <c r="R2" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="63"/>
-      <c r="T2" s="62">
+      <c r="S2" s="61"/>
+      <c r="T2" s="60">
         <v>44604</v>
       </c>
-      <c r="U2" s="63"/>
-      <c r="V2" s="62">
+      <c r="U2" s="61"/>
+      <c r="V2" s="60">
         <v>44816</v>
       </c>
-      <c r="W2" s="63"/>
-      <c r="X2" s="66"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="64"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="103"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1608,16 +1602,16 @@
       <c r="W3" s="4">
         <v>2</v>
       </c>
-      <c r="X3" s="67"/>
+      <c r="X3" s="65"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="81">
         <v>30</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="83">
         <v>33</v>
       </c>
       <c r="D4" s="5"/>
@@ -1640,14 +1634,14 @@
       <c r="U4" s="7"/>
       <c r="V4" s="10"/>
       <c r="W4" s="8"/>
-      <c r="X4" s="98" t="s">
+      <c r="X4" s="96" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="85"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
@@ -1668,16 +1662,16 @@
       <c r="U5" s="37"/>
       <c r="V5" s="41"/>
       <c r="W5" s="39"/>
-      <c r="X5" s="87"/>
+      <c r="X5" s="85"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="81">
         <v>2</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="83">
         <v>1.5</v>
       </c>
       <c r="D6" s="15"/>
@@ -1700,14 +1694,14 @@
       <c r="U6" s="12"/>
       <c r="V6" s="14"/>
       <c r="W6" s="13"/>
-      <c r="X6" s="87"/>
+      <c r="X6" s="85"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="85"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="36"/>
-      <c r="E7" s="61"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="11"/>
       <c r="G7" s="12"/>
       <c r="H7" s="14"/>
@@ -1726,20 +1720,20 @@
       <c r="U7" s="12"/>
       <c r="V7" s="14"/>
       <c r="W7" s="13"/>
-      <c r="X7" s="87"/>
-      <c r="AA7" s="60"/>
+      <c r="X7" s="85"/>
+      <c r="AA7" s="58"/>
       <c r="AB7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="81">
         <v>2</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="83">
         <v>2.5</v>
       </c>
       <c r="D8" s="15"/>
@@ -1762,16 +1756,16 @@
       <c r="U8" s="12"/>
       <c r="V8" s="14"/>
       <c r="W8" s="13"/>
-      <c r="X8" s="87"/>
-      <c r="AA8" s="59"/>
+      <c r="X8" s="85"/>
+      <c r="AA8" s="57"/>
       <c r="AB8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="82"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="85"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="36"/>
       <c r="E9" s="37"/>
       <c r="F9" s="11"/>
@@ -1792,20 +1786,20 @@
       <c r="U9" s="12"/>
       <c r="V9" s="14"/>
       <c r="W9" s="13"/>
-      <c r="X9" s="87"/>
-      <c r="AA9" s="58"/>
+      <c r="X9" s="85"/>
+      <c r="AA9" s="56"/>
       <c r="AB9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="89">
         <v>1.5</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="91">
         <v>1</v>
       </c>
       <c r="D10" s="5"/>
@@ -1828,14 +1822,14 @@
       <c r="U10" s="6"/>
       <c r="V10" s="18"/>
       <c r="W10" s="17"/>
-      <c r="X10" s="86" t="s">
+      <c r="X10" s="84" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="90"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="94"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
       <c r="F11" s="11"/>
@@ -1856,16 +1850,16 @@
       <c r="U11" s="12"/>
       <c r="V11" s="14"/>
       <c r="W11" s="13"/>
-      <c r="X11" s="87"/>
+      <c r="X11" s="85"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="96">
+      <c r="B12" s="94">
         <v>1</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="95">
         <v>1</v>
       </c>
       <c r="D12" s="11"/>
@@ -1888,12 +1882,12 @@
       <c r="U12" s="12"/>
       <c r="V12" s="14"/>
       <c r="W12" s="13"/>
-      <c r="X12" s="87"/>
+      <c r="X12" s="85"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="73"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="71"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="20"/>
       <c r="E13" s="21"/>
       <c r="F13" s="44"/>
@@ -1914,16 +1908,16 @@
       <c r="U13" s="21"/>
       <c r="V13" s="23"/>
       <c r="W13" s="22"/>
-      <c r="X13" s="88"/>
+      <c r="X13" s="86"/>
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="89">
         <v>1</v>
       </c>
-      <c r="C14" s="93">
+      <c r="C14" s="91">
         <v>1</v>
       </c>
       <c r="D14" s="5"/>
@@ -1946,14 +1940,14 @@
       <c r="U14" s="6"/>
       <c r="V14" s="18"/>
       <c r="W14" s="17"/>
-      <c r="X14" s="86" t="s">
+      <c r="X14" s="84" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="90"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="94"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
       <c r="F15" s="11"/>
@@ -1974,16 +1968,16 @@
       <c r="U15" s="12"/>
       <c r="V15" s="14"/>
       <c r="W15" s="13"/>
-      <c r="X15" s="87"/>
+      <c r="X15" s="85"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="96">
+      <c r="B16" s="94">
         <v>2</v>
       </c>
-      <c r="C16" s="97">
+      <c r="C16" s="95">
         <v>2</v>
       </c>
       <c r="D16" s="11"/>
@@ -2006,12 +2000,12 @@
       <c r="U16" s="12"/>
       <c r="V16" s="14"/>
       <c r="W16" s="13"/>
-      <c r="X16" s="87"/>
+      <c r="X16" s="85"/>
     </row>
     <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="90"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="94"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="92"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="36"/>
@@ -2032,16 +2026,16 @@
       <c r="U17" s="12"/>
       <c r="V17" s="14"/>
       <c r="W17" s="13"/>
-      <c r="X17" s="87"/>
+      <c r="X17" s="85"/>
     </row>
     <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="96">
+      <c r="B18" s="94">
         <v>1.5</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C18" s="95">
         <v>1</v>
       </c>
       <c r="D18" s="11"/>
@@ -2064,12 +2058,12 @@
       <c r="U18" s="12"/>
       <c r="V18" s="14"/>
       <c r="W18" s="13"/>
-      <c r="X18" s="87"/>
+      <c r="X18" s="85"/>
     </row>
     <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="94"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="92"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
       <c r="F19" s="11"/>
@@ -2090,16 +2084,16 @@
       <c r="U19" s="12"/>
       <c r="V19" s="14"/>
       <c r="W19" s="13"/>
-      <c r="X19" s="87"/>
+      <c r="X19" s="85"/>
     </row>
     <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="96">
+      <c r="B20" s="94">
         <v>2</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20" s="48">
         <v>2.5</v>
       </c>
       <c r="D20" s="11"/>
@@ -2122,12 +2116,12 @@
       <c r="U20" s="12"/>
       <c r="V20" s="14"/>
       <c r="W20" s="13"/>
-      <c r="X20" s="87"/>
+      <c r="X20" s="85"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="73"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="20"/>
       <c r="E21" s="21"/>
       <c r="F21" s="20"/>
@@ -2148,16 +2142,16 @@
       <c r="U21" s="21"/>
       <c r="V21" s="23"/>
       <c r="W21" s="22"/>
-      <c r="X21" s="88"/>
+      <c r="X21" s="86"/>
     </row>
     <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="51">
         <v>0.5</v>
       </c>
-      <c r="C22" s="54">
+      <c r="C22" s="52">
         <v>0.5</v>
       </c>
       <c r="D22" s="5"/>
@@ -2180,14 +2174,14 @@
       <c r="U22" s="6"/>
       <c r="V22" s="18"/>
       <c r="W22" s="17"/>
-      <c r="X22" s="86" t="s">
+      <c r="X22" s="84" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="73"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="51"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="20"/>
       <c r="E23" s="21"/>
       <c r="F23" s="20"/>
@@ -2208,16 +2202,16 @@
       <c r="U23" s="21"/>
       <c r="V23" s="23"/>
       <c r="W23" s="22"/>
-      <c r="X23" s="88"/>
+      <c r="X23" s="86"/>
     </row>
     <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="91">
+      <c r="B24" s="89">
         <v>1.5</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="91">
         <v>1</v>
       </c>
       <c r="D24" s="5"/>
@@ -2240,14 +2234,14 @@
       <c r="U24" s="6"/>
       <c r="V24" s="18"/>
       <c r="W24" s="17"/>
-      <c r="X24" s="86" t="s">
+      <c r="X24" s="84" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="90"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="94"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="92"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
       <c r="F25" s="11"/>
@@ -2268,16 +2262,16 @@
       <c r="U25" s="12"/>
       <c r="V25" s="14"/>
       <c r="W25" s="13"/>
-      <c r="X25" s="87"/>
+      <c r="X25" s="85"/>
     </row>
     <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="96">
+      <c r="B26" s="94">
         <v>2.5</v>
       </c>
-      <c r="C26" s="97">
+      <c r="C26" s="95">
         <v>3</v>
       </c>
       <c r="D26" s="11"/>
@@ -2300,12 +2294,12 @@
       <c r="U26" s="12"/>
       <c r="V26" s="14"/>
       <c r="W26" s="13"/>
-      <c r="X26" s="87"/>
+      <c r="X26" s="85"/>
     </row>
     <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="90"/>
-      <c r="B27" s="92"/>
-      <c r="C27" s="94"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="92"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
       <c r="F27" s="11"/>
@@ -2326,14 +2320,16 @@
       <c r="U27" s="12"/>
       <c r="V27" s="14"/>
       <c r="W27" s="13"/>
-      <c r="X27" s="87"/>
+      <c r="X27" s="85"/>
     </row>
     <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96">
+      <c r="A28" s="93" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="94">
         <v>4.5</v>
       </c>
-      <c r="C28" s="97">
+      <c r="C28" s="95">
         <v>5</v>
       </c>
       <c r="D28" s="11"/>
@@ -2356,12 +2352,12 @@
       <c r="U28" s="12"/>
       <c r="V28" s="14"/>
       <c r="W28" s="13"/>
-      <c r="X28" s="87"/>
+      <c r="X28" s="85"/>
     </row>
     <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="90"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="94"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="92"/>
       <c r="D29" s="11"/>
       <c r="E29" s="12"/>
       <c r="F29" s="11"/>
@@ -2382,14 +2378,14 @@
       <c r="U29" s="12"/>
       <c r="V29" s="14"/>
       <c r="W29" s="13"/>
-      <c r="X29" s="87"/>
+      <c r="X29" s="85"/>
     </row>
     <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="95"/>
-      <c r="B30" s="96">
+      <c r="A30" s="93"/>
+      <c r="B30" s="94">
         <v>2.5</v>
       </c>
-      <c r="C30" s="97">
+      <c r="C30" s="95">
         <v>5</v>
       </c>
       <c r="D30" s="11"/>
@@ -2412,12 +2408,12 @@
       <c r="U30" s="12"/>
       <c r="V30" s="14"/>
       <c r="W30" s="13"/>
-      <c r="X30" s="87"/>
+      <c r="X30" s="85"/>
     </row>
     <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="90"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="94"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="11"/>
       <c r="E31" s="12"/>
       <c r="F31" s="11"/>
@@ -2438,16 +2434,13 @@
       <c r="U31" s="12"/>
       <c r="V31" s="14"/>
       <c r="W31" s="13"/>
-      <c r="X31" s="87"/>
+      <c r="X31" s="85"/>
     </row>
     <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="48">
+      <c r="B32" s="46">
         <v>1</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="48">
         <v>1</v>
       </c>
       <c r="D32" s="11"/>
@@ -2470,12 +2463,11 @@
       <c r="U32" s="12"/>
       <c r="V32" s="14"/>
       <c r="W32" s="13"/>
-      <c r="X32" s="87"/>
+      <c r="X32" s="85"/>
     </row>
     <row r="33" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="46"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="11"/>
       <c r="E33" s="12"/>
       <c r="F33" s="11"/>
@@ -2496,14 +2488,14 @@
       <c r="U33" s="12"/>
       <c r="V33" s="14"/>
       <c r="W33" s="13"/>
-      <c r="X33" s="87"/>
+      <c r="X33" s="85"/>
     </row>
     <row r="34" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="49"/>
-      <c r="B34" s="48">
+      <c r="A34" s="47"/>
+      <c r="B34" s="46">
         <v>4.5</v>
       </c>
-      <c r="C34" s="97">
+      <c r="C34" s="95">
         <v>1</v>
       </c>
       <c r="D34" s="11"/>
@@ -2526,12 +2518,12 @@
       <c r="U34" s="12"/>
       <c r="V34" s="14"/>
       <c r="W34" s="13"/>
-      <c r="X34" s="87"/>
+      <c r="X34" s="85"/>
     </row>
     <row r="35" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="57"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="94"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="11"/>
       <c r="E35" s="12"/>
       <c r="F35" s="11"/>
@@ -2552,14 +2544,14 @@
       <c r="U35" s="12"/>
       <c r="V35" s="14"/>
       <c r="W35" s="13"/>
-      <c r="X35" s="87"/>
+      <c r="X35" s="85"/>
     </row>
     <row r="36" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="49"/>
-      <c r="B36" s="48">
+      <c r="A36" s="47"/>
+      <c r="B36" s="46">
         <v>2.5</v>
       </c>
-      <c r="C36" s="50">
+      <c r="C36" s="48">
         <v>2</v>
       </c>
       <c r="D36" s="11"/>
@@ -2582,12 +2574,12 @@
       <c r="U36" s="12"/>
       <c r="V36" s="14"/>
       <c r="W36" s="13"/>
-      <c r="X36" s="87"/>
+      <c r="X36" s="85"/>
     </row>
     <row r="37" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="57"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="11"/>
       <c r="E37" s="12"/>
       <c r="F37" s="11"/>
@@ -2608,14 +2600,14 @@
       <c r="U37" s="12"/>
       <c r="V37" s="14"/>
       <c r="W37" s="13"/>
-      <c r="X37" s="87"/>
+      <c r="X37" s="85"/>
     </row>
     <row r="38" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="49"/>
-      <c r="B38" s="48">
+      <c r="A38" s="47"/>
+      <c r="B38" s="46">
         <v>1.5</v>
       </c>
-      <c r="C38" s="50">
+      <c r="C38" s="48">
         <v>1</v>
       </c>
       <c r="D38" s="11"/>
@@ -2638,12 +2630,12 @@
       <c r="U38" s="12"/>
       <c r="V38" s="14"/>
       <c r="W38" s="13"/>
-      <c r="X38" s="87"/>
+      <c r="X38" s="85"/>
     </row>
     <row r="39" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="57"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="11"/>
       <c r="E39" s="12"/>
       <c r="F39" s="11"/>
@@ -2664,17 +2656,17 @@
       <c r="U39" s="12"/>
       <c r="V39" s="14"/>
       <c r="W39" s="13"/>
-      <c r="X39" s="87"/>
+      <c r="X39" s="85"/>
       <c r="AE39" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83">
+      <c r="A40" s="80"/>
+      <c r="B40" s="81">
         <v>4.5</v>
       </c>
-      <c r="C40" s="85">
+      <c r="C40" s="83">
         <v>3.5</v>
       </c>
       <c r="D40" s="11"/>
@@ -2697,12 +2689,12 @@
       <c r="U40" s="12"/>
       <c r="V40" s="14"/>
       <c r="W40" s="13"/>
-      <c r="X40" s="87"/>
+      <c r="X40" s="85"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A41" s="82"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="85"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="11"/>
       <c r="E41" s="12"/>
       <c r="F41" s="11"/>
@@ -2723,14 +2715,14 @@
       <c r="U41" s="12"/>
       <c r="V41" s="14"/>
       <c r="W41" s="13"/>
-      <c r="X41" s="87"/>
+      <c r="X41" s="85"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83">
+      <c r="A42" s="80"/>
+      <c r="B42" s="81">
         <v>4.5</v>
       </c>
-      <c r="C42" s="85">
+      <c r="C42" s="83">
         <v>5</v>
       </c>
       <c r="D42" s="11"/>
@@ -2753,12 +2745,12 @@
       <c r="U42" s="12"/>
       <c r="V42" s="14"/>
       <c r="W42" s="13"/>
-      <c r="X42" s="87"/>
+      <c r="X42" s="85"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="85"/>
+      <c r="A43" s="80"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="83"/>
       <c r="D43" s="11"/>
       <c r="E43" s="12"/>
       <c r="F43" s="11"/>
@@ -2779,14 +2771,14 @@
       <c r="U43" s="12"/>
       <c r="V43" s="14"/>
       <c r="W43" s="13"/>
-      <c r="X43" s="87"/>
+      <c r="X43" s="85"/>
     </row>
     <row r="44" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="95"/>
-      <c r="B44" s="83">
+      <c r="A44" s="93"/>
+      <c r="B44" s="81">
         <v>1.5</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="83">
         <v>2</v>
       </c>
       <c r="D44" s="11"/>
@@ -2809,12 +2801,12 @@
       <c r="U44" s="12"/>
       <c r="V44" s="14"/>
       <c r="W44" s="13"/>
-      <c r="X44" s="87"/>
+      <c r="X44" s="85"/>
     </row>
     <row r="45" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A45" s="73"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="89"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="75"/>
+      <c r="C45" s="87"/>
       <c r="D45" s="20"/>
       <c r="E45" s="21"/>
       <c r="F45" s="20"/>
@@ -2835,16 +2827,16 @@
       <c r="U45" s="21"/>
       <c r="V45" s="23"/>
       <c r="W45" s="22"/>
-      <c r="X45" s="88"/>
+      <c r="X45" s="86"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="74">
         <v>1.5</v>
       </c>
-      <c r="C46" s="84">
+      <c r="C46" s="82">
         <v>1</v>
       </c>
       <c r="D46" s="5"/>
@@ -2867,14 +2859,14 @@
       <c r="U46" s="6"/>
       <c r="V46" s="18"/>
       <c r="W46" s="17"/>
-      <c r="X46" s="86" t="s">
+      <c r="X46" s="84" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A47" s="82"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="85"/>
+      <c r="A47" s="80"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="83"/>
       <c r="D47" s="11"/>
       <c r="E47" s="12"/>
       <c r="F47" s="11"/>
@@ -2895,16 +2887,16 @@
       <c r="U47" s="12"/>
       <c r="V47" s="14"/>
       <c r="W47" s="13"/>
-      <c r="X47" s="87"/>
+      <c r="X47" s="85"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.45">
-      <c r="A48" s="82" t="s">
+      <c r="A48" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="83">
+      <c r="B48" s="81">
         <v>4.5</v>
       </c>
-      <c r="C48" s="85">
+      <c r="C48" s="83">
         <v>4.5</v>
       </c>
       <c r="D48" s="11"/>
@@ -2927,12 +2919,12 @@
       <c r="U48" s="16"/>
       <c r="V48" s="14"/>
       <c r="W48" s="13"/>
-      <c r="X48" s="87"/>
+      <c r="X48" s="85"/>
     </row>
     <row r="49" spans="1:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A49" s="75"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="89"/>
+      <c r="A49" s="73"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="87"/>
       <c r="D49" s="20"/>
       <c r="E49" s="21"/>
       <c r="F49" s="20"/>
@@ -2953,16 +2945,16 @@
       <c r="U49" s="40"/>
       <c r="V49" s="23"/>
       <c r="W49" s="22"/>
-      <c r="X49" s="88"/>
+      <c r="X49" s="86"/>
     </row>
     <row r="50" spans="1:52" x14ac:dyDescent="0.45">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="74">
         <v>2.5</v>
       </c>
-      <c r="C50" s="78">
+      <c r="C50" s="76">
         <v>2</v>
       </c>
       <c r="D50" s="25"/>
@@ -2985,14 +2977,14 @@
       <c r="U50" s="26"/>
       <c r="V50" s="29"/>
       <c r="W50" s="30"/>
-      <c r="X50" s="80" t="s">
+      <c r="X50" s="78" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A51" s="75"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="79"/>
+      <c r="A51" s="73"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="77"/>
       <c r="D51" s="20"/>
       <c r="E51" s="21"/>
       <c r="F51" s="20"/>
@@ -3013,7 +3005,7 @@
       <c r="U51" s="21"/>
       <c r="V51" s="45"/>
       <c r="W51" s="38"/>
-      <c r="X51" s="81"/>
+      <c r="X51" s="79"/>
     </row>
     <row r="52" spans="1:52" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="31" t="s">
@@ -3081,6 +3073,7 @@
   </sheetData>
   <mergeCells count="88">
     <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
@@ -3124,7 +3117,6 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C28:C29"/>
